--- a/data/trans_bre/P22_R4-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P22_R4-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.504870363642328</v>
+        <v>-2.029962793605552</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.139703910605085</v>
+        <v>-1.89589823522373</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.688601566505006</v>
+        <v>-5.703300764530948</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.1206776632248</v>
+        <v>-9.007462466787809</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2435236691486421</v>
+        <v>-0.2215170445273832</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2930599894047167</v>
+        <v>-0.2834558203281021</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6029828396893842</v>
+        <v>-0.6127605541054718</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6384456062913428</v>
+        <v>-0.6210003088349252</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.193311223959949</v>
+        <v>5.543928048346487</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.167815597326409</v>
+        <v>4.361208879998395</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9864435121715396</v>
+        <v>0.8637473494238552</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.456623533708567</v>
+        <v>4.022271068932799</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8164201747873157</v>
+        <v>0.8119696903776213</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.986169368740126</v>
+        <v>1.023195419622213</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1649147456821668</v>
+        <v>0.1606276699257371</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4751276544579233</v>
+        <v>0.6092467694894164</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.98548119603379</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.79183203479934</v>
+        <v>5.791832034799336</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1463035304146602</v>
@@ -749,7 +749,7 @@
         <v>0.547575393270251</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.6434963265115198</v>
+        <v>0.6434963265115194</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.965438297134171</v>
+        <v>-2.140689387156269</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.640307536091901</v>
+        <v>-5.645767838290451</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5966248881776171</v>
+        <v>0.6023963423511571</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.22834359842038</v>
+        <v>1.146510585587665</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1696154873430575</v>
+        <v>-0.1770152095038279</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4340074054842231</v>
+        <v>-0.4456315583627488</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04893936589505492</v>
+        <v>0.05371597853363703</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.08015401653305594</v>
+        <v>0.07718506115684813</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.963790623413014</v>
+        <v>5.046236507751981</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.229582186506733</v>
+        <v>1.136386682801288</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.197672478441635</v>
+        <v>7.536233807115203</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.83006366964382</v>
+        <v>10.5089244813011</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5776192323106883</v>
+        <v>0.609966156216885</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1452019792398483</v>
+        <v>0.1195319316349206</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.218317596656994</v>
+        <v>1.271421896505926</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.634817886059558</v>
+        <v>1.636251272496719</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-1.196651720654417</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.759410067262185</v>
+        <v>-1.759410067262188</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.2855672478397169</v>
@@ -849,7 +849,7 @@
         <v>-0.1054928958209165</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.112248365350007</v>
+        <v>-0.1122483653500072</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.493404937250285</v>
+        <v>-7.553822725710881</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.373593249941234</v>
+        <v>-7.490205954128783</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.911300018430241</v>
+        <v>-4.781425877237257</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.683640611536505</v>
+        <v>-5.823727840519396</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.492568985258075</v>
+        <v>-0.4797460107679116</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5170372898860043</v>
+        <v>-0.5104584648296522</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3631992908840606</v>
+        <v>-0.3500773075971423</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3021374240016894</v>
+        <v>-0.3244889073133518</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.3035643047942351</v>
+        <v>-0.3030183035687856</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.4206800283521155</v>
+        <v>-0.4330803413350879</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.016884669022189</v>
+        <v>2.097348533451388</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.077549806110618</v>
+        <v>2.099131921181018</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.0342525201193908</v>
+        <v>-0.02158432585434121</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.03507665582470328</v>
+        <v>-0.03806339974241059</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2099752079807968</v>
+        <v>0.2286539045280286</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1623353892025359</v>
+        <v>0.1552081324413196</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-1.693624724086361</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.4942721223888252</v>
+        <v>-0.4942721223888197</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.3045705661335606</v>
@@ -949,7 +949,7 @@
         <v>-0.1794233440695163</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.02880332640531202</v>
+        <v>-0.0288033264053117</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-8.658051106064422</v>
+        <v>-8.549134110265195</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.693933138483038</v>
+        <v>-3.403610124459647</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.051744124375812</v>
+        <v>-4.965895044564981</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.412398308538181</v>
+        <v>-3.923588898956896</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5270784801410481</v>
+        <v>-0.5365834649422077</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2885089528590486</v>
+        <v>-0.2846085077669127</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4479867349309221</v>
+        <v>-0.4405851375044739</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.218443610321125</v>
+        <v>-0.2043338639825528</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.2098844683708513</v>
+        <v>-0.1737827302396681</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.502739764556906</v>
+        <v>4.212708159690467</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.585998025429842</v>
+        <v>1.23915554679509</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.472936398801733</v>
+        <v>2.841215583067835</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.01805871285261115</v>
+        <v>-0.01865956179020801</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5569603119352606</v>
+        <v>0.5186076808252437</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2285037617729741</v>
+        <v>0.1645792362424824</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2375860030619893</v>
+        <v>0.1879766271956448</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>-0.03360557164459407</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.09067693950374761</v>
+        <v>0.0906769395037476</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.795102307088494</v>
+        <v>-2.966065734031531</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.10460734134716</v>
+        <v>-5.088697999519142</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.98689121817312</v>
+        <v>-3.766949207203838</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.094344262457157</v>
+        <v>-2.268594420424439</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2050769838087775</v>
+        <v>-0.2113734230486151</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5047450851680069</v>
+        <v>-0.4895780405155683</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4181114943537125</v>
+        <v>-0.393955704275659</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1269803867260587</v>
+        <v>-0.1421397612457401</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.43527660840084</v>
+        <v>6.509199277928024</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.682750366150535</v>
+        <v>3.272913258880825</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.355736972653871</v>
+        <v>3.205564850631673</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.951443365734569</v>
+        <v>4.670284754698709</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7090059420791076</v>
+        <v>0.7324427419532218</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4610641529828538</v>
+        <v>0.5641635353242795</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5395396426272204</v>
+        <v>0.5382036503071421</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4357391076820066</v>
+        <v>0.3857105576650326</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.047043680198455</v>
+        <v>-3.045202980375272</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-7.834962974260304</v>
+        <v>-7.738968312824181</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.943338525459671</v>
+        <v>-3.230967285573458</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-5.840261055600833</v>
+        <v>-5.991337104824936</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3774839318208461</v>
+        <v>-0.3847111692202168</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7056222312652543</v>
+        <v>-0.6976126956806905</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4167844334361787</v>
+        <v>-0.4359549583669034</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3473641990159688</v>
+        <v>-0.3541567906573475</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.449686044662146</v>
+        <v>4.421470969007613</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4653044795591502</v>
+        <v>0.7104254618308163</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.634588787019587</v>
+        <v>4.137526326106669</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.47362095765166</v>
+        <v>1.565582101269148</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9671276536565738</v>
+        <v>1.099628484196437</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1535494347437223</v>
+        <v>0.1847573025319791</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.137363442110062</v>
+        <v>1.080876095908662</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1213055499956791</v>
+        <v>0.1335959494437058</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-1.285084664289247</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-1.651598323424158</v>
+        <v>-1.65159832342416</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.3817703232629839</v>
@@ -1249,7 +1249,7 @@
         <v>-0.2951932398981246</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.1887240028949572</v>
+        <v>-0.1887240028949573</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.92377630911526</v>
+        <v>-5.616276743331098</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.394557605457336</v>
+        <v>-3.263429848766354</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.452369019457495</v>
+        <v>-3.909598949222227</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.207351945728895</v>
+        <v>-4.733443250459215</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.7831665872649064</v>
+        <v>-0.7883959358609884</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.6008801429626575</v>
+        <v>-0.5646068771413164</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.7408809903522687</v>
+        <v>-0.7041957997880886</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.4751400264580322</v>
+        <v>-0.4365220634553242</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.247677032412536</v>
+        <v>1.147501468462662</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.55801683417891</v>
+        <v>3.57080358105037</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.785428718748807</v>
+        <v>2.213537366663232</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.322922658616783</v>
+        <v>1.377753885630191</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5646579648402125</v>
+        <v>0.4772446978558013</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.958138898854396</v>
+        <v>1.942732910222611</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8165160530725217</v>
+        <v>0.9071561098201905</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2087795917363507</v>
+        <v>0.2133776276498313</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-0.4714053434878601</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-0.2559672228847898</v>
+        <v>-0.255967222884787</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.1007976217786726</v>
@@ -1349,7 +1349,7 @@
         <v>-0.05735587505247695</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.01899291917240855</v>
+        <v>-0.01899291917240835</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.685821599022457</v>
+        <v>-2.648075752845105</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-2.909065965418686</v>
+        <v>-3.158942684689058</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.870528432414297</v>
+        <v>-1.761543102602418</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-2.002197483404435</v>
+        <v>-1.858869399143254</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2335969804748669</v>
+        <v>-0.232839396715865</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2973082068946522</v>
+        <v>-0.3191003353343493</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2136966700470298</v>
+        <v>-0.1971702483370277</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1365635832921617</v>
+        <v>-0.128261730396977</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5343026149195953</v>
+        <v>0.4056656272892926</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-0.1249365420969162</v>
+        <v>-0.2711886871583891</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8727920755731972</v>
+        <v>0.9662576258435297</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.25985986716167</v>
+        <v>1.313717718660414</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.05577678704253798</v>
+        <v>0.04313493184459179</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.01740307417662025</v>
+        <v>-0.0325546018215625</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1174120894125801</v>
+        <v>0.1356633525861647</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1009200871325264</v>
+        <v>0.1051463817628575</v>
       </c>
     </row>
     <row r="28">
